--- a/static/excel-files/atlas.xlsx
+++ b/static/excel-files/atlas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -292,250 +292,250 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--98c59f3e-2e5e-41e1-b450-e34ab1627268</t>
-  </si>
-  <si>
-    <t>attack-pattern--b41c38e9-80ca-421e-85c3-064440e12834</t>
-  </si>
-  <si>
-    <t>attack-pattern--c5573b25-a257-43f9-912a-26e3cccb0c33</t>
-  </si>
-  <si>
-    <t>attack-pattern--60a9f8e3-50fa-4dfd-8cc6-1598ce48abe3</t>
-  </si>
-  <si>
-    <t>attack-pattern--70cf5726-5a5b-4114-8e54-991c17803422</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccf956b4-329e-4de8-8ba2-e784d152e0cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--79cdc11c-2ca9-4a6a-96a0-18bd84943086</t>
-  </si>
-  <si>
-    <t>attack-pattern--a109f272-a57b-4c85-896d-0429af301e21</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac7bb2f4-0eef-4d42-b2ee-99810c855123</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c9375f7-5d39-4da5-beaa-edc8c143362f</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba5645e5-d1ab-4f1f-8b82-cb0792543fa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f7394cf-d0e4-4187-85c7-d278f77a9a09</t>
-  </si>
-  <si>
-    <t>attack-pattern--12887d43-f8b6-4191-adab-d1728687f951</t>
-  </si>
-  <si>
-    <t>attack-pattern--666f4d33-1a62-4ad7-9bf9-6387cd3f1fd7</t>
-  </si>
-  <si>
-    <t>attack-pattern--512fc1dc-d52b-483d-8bac-4f7034b9e407</t>
-  </si>
-  <si>
-    <t>attack-pattern--1f1b53cf-c34f-48d2-b9f2-32074392e4a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7f4fc2-272b-4f86-b137-70fa3e239f58</t>
-  </si>
-  <si>
-    <t>attack-pattern--1cc7f877-cb60-419a-bd1e-32b704b534d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--b386c5b6-dbc8-429f-a771-c712e3f1227b</t>
-  </si>
-  <si>
-    <t>attack-pattern--9dc349e9-745e-4bb0-9f95-9c9c598045ac</t>
-  </si>
-  <si>
-    <t>attack-pattern--529fac49-5f88-4a3c-829f-eb50cb90bcf1</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a115a02-2b88-4a3e-9212-a39dc086320b</t>
-  </si>
-  <si>
-    <t>attack-pattern--65c5e3b8-9296-46a2-ae7d-1b68a79cbe54</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bcf7648-2683-421d-b623-bc539de59cb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--f1e017cd-d02c-4e33-a880-9e39c1e47621</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb747632-d988-45ff-9cb3-97d827b4d9db</t>
-  </si>
-  <si>
-    <t>attack-pattern--481486ed-846c-43ce-931b-86b8a18556b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b829988-8bdb-4c4e-a4dd-500a3d3fd3e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--81da9310-0555-4f71-9840-40e3799c85da</t>
-  </si>
-  <si>
-    <t>attack-pattern--0a648aab-7809-48b4-a505-cba29fa14c0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5d1fd4f-861f-43e0-b1ca-ee8a3b47f7e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b8373cee-1dfb-4e37-8ea5-8d012b276ba7</t>
-  </si>
-  <si>
-    <t>attack-pattern--afcd723a-e5ff-4c09-8f72-fe16f7345af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2f30865-5e3b-4fee-a415-94909ed31156</t>
-  </si>
-  <si>
-    <t>attack-pattern--eeb15ef7-70f9-45b1-8ce9-07d20ee9258a</t>
-  </si>
-  <si>
-    <t>attack-pattern--83c5ba15-5312-4c7d-bbb4-f9c4f2c6ffca</t>
-  </si>
-  <si>
-    <t>attack-pattern--68034561-a079-4052-9b64-427bfcff76ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b86b97e-648e-44f9-8d2c-5c5557062f3e</t>
-  </si>
-  <si>
-    <t>attack-pattern--569d6edd-0140-4ab2-97b1-3635d62f40cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--40792e08-d972-4af8-8eee-d6d6dc96d106</t>
-  </si>
-  <si>
-    <t>attack-pattern--3dc95dea-7507-447f-8ab5-e10beadaf606</t>
-  </si>
-  <si>
-    <t>attack-pattern--151214d2-2f04-474a-90a7-d0645dee2cbe</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c248560-8041-48cc-8948-2c6815afe236</t>
-  </si>
-  <si>
-    <t>attack-pattern--9800daea-8512-48fe-a8a6-addf4e4472c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--1511d7eb-cf6f-470f-b7fe-e001be2c2935</t>
-  </si>
-  <si>
-    <t>attack-pattern--b67fc223-fecf-4ee6-9de7-9392d9f04060</t>
-  </si>
-  <si>
-    <t>attack-pattern--99441fbc-17c8-47dc-8bdc-1053952b4cbb</t>
-  </si>
-  <si>
-    <t>attack-pattern--0d002b6b-d006-4aab-a7f9-fa69f4a1e675</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5d2ba8c-0319-4c14-9831-f5b708c8863d</t>
-  </si>
-  <si>
-    <t>attack-pattern--4627c4e6-fb06-4bfa-add5-dc46e0043aff</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6697dbf-3e3f-41ce-a212-361d1c0ca0e9</t>
-  </si>
-  <si>
-    <t>attack-pattern--0bab6cda-eb77-46b8-adfc-4274d0513c8f</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f80868c-5996-4730-9326-f1c8a8630c5e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2792e1f0-3132-4876-878d-a900b8a40e7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--292ebe33-addc-4fe7-b2a9-4856293c4c96</t>
-  </si>
-  <si>
-    <t>attack-pattern--41dba0ab-b7bf-40b6-ac47-61dbfa16a53d</t>
-  </si>
-  <si>
-    <t>attack-pattern--b74030e3-0ee5-4c50-80ad-2393b3e1b161</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0958449-a880-4410-bbb1-fa102030a883</t>
-  </si>
-  <si>
-    <t>attack-pattern--822cb1e2-f35f-4b35-a650-59b7770d4abc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6945b742-f1d5-4a83-ba4a-d0e0de6620c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--cb1bd497-e068-4b72-85af-626ab2f80e1d</t>
-  </si>
-  <si>
-    <t>attack-pattern--0799f2f2-1038-4391-ba1f-4117595db45a</t>
-  </si>
-  <si>
-    <t>attack-pattern--411ffbe6-e20e-468d-bdf6-01e9d549ff6a</t>
-  </si>
-  <si>
-    <t>attack-pattern--f662d072-38ee-4399-bdbb-b2f5ccfed446</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93b2175-90a8-4250-821f-dcc3bbbe194c</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f8b3c84-acb4-42aa-b059-103ab52498ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--229ead06-da1e-443c-8ff1-e57a3ae0eb61</t>
-  </si>
-  <si>
-    <t>attack-pattern--2de27d58-3e31-42fc-a52a-5c350ce5639f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b1eeb78-bf3e-4d30-a376-d3f6ba67bd7c</t>
-  </si>
-  <si>
-    <t>attack-pattern--3247b43f-1888-4158-b3da-5b7c7dfaa4e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--ed847783-c732-4b52-b72e-e823a870c09c</t>
-  </si>
-  <si>
-    <t>attack-pattern--0aac198b-3d5e-40ff-9460-290035d67717</t>
-  </si>
-  <si>
-    <t>attack-pattern--a40d6631-9042-4ba2-8a5b-5bd162ffb4bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--042e340a-ea50-46f7-a2bc-70bbad949313</t>
-  </si>
-  <si>
-    <t>attack-pattern--d52b913b-808c-461d-8969-94cd5c9fe07b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd3e5970-2a1c-44b7-a94b-566a2a09dfb5</t>
-  </si>
-  <si>
-    <t>attack-pattern--7e8bff1e-af7d-4ace-829c-2b561b47e49d</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e8e4108-beb6-479a-a617-323d425e5d03</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1e68129-6d82-4091-9324-bbf148a2228b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dc5ed9cb-7484-4f6c-9434-f420f17b13a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--466f70e5-5b63-42ae-8dab-f54e0a928d55</t>
-  </si>
-  <si>
-    <t>attack-pattern--51c95da5-d7f1-4b57-9229-869b80305b37</t>
+    <t>attack-pattern--4fb3f968-42a6-43da-ae93-5f165afa82e3</t>
+  </si>
+  <si>
+    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--68b13c6b-c45d-4864-8186-189c77eaeb4d</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d881f79-6a16-4e84-a795-4f3914045e67</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6a3ddcc-60d7-4ae8-b702-eca52e3ace5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--0dc3c131-1524-486e-a653-52240e95a22a</t>
+  </si>
+  <si>
+    <t>attack-pattern--e641274e-cac2-49c4-800f-abd0c0d825cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--047c1235-9c18-4425-8494-6f8a75feabce</t>
+  </si>
+  <si>
+    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
+  </si>
+  <si>
+    <t>attack-pattern--d93718ee-12c5-4f76-9845-1bb14f948513</t>
+  </si>
+  <si>
+    <t>attack-pattern--36a77758-5a44-48e9-9545-14bd0a54756d</t>
+  </si>
+  <si>
+    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
+  </si>
+  <si>
+    <t>attack-pattern--ff90c91c-2f51-48db-bc3c-e1d1ebf093f3</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e3499bf-169b-4b77-ae04-c689e53a9895</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
+  </si>
+  <si>
+    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
+  </si>
+  <si>
+    <t>attack-pattern--05c6f7a3-1f8a-443d-a3d7-b4d54ab28e8c</t>
+  </si>
+  <si>
+    <t>attack-pattern--87f481a5-f4f5-4aa8-b19a-854634bdf08f</t>
+  </si>
+  <si>
+    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3c55a49-99c1-4613-994a-9948228ef0c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
+  </si>
+  <si>
+    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--5c4401a9-b406-4cbd-9c2d-af905a927c23</t>
+  </si>
+  <si>
+    <t>attack-pattern--22fd9008-0257-448b-a013-e253ece129e7</t>
+  </si>
+  <si>
+    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef5867e1-c9cc-4e52-8044-80053e308042</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e33fd0b-b624-4aa9-9c87-69acaa29437d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7adc32b4-93f3-441f-9ad4-08f8643d450e</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
+  </si>
+  <si>
+    <t>attack-pattern--36d540cd-e31b-457e-8ac0-f34eec004a7a</t>
+  </si>
+  <si>
+    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
+  </si>
+  <si>
+    <t>attack-pattern--8eb6f82a-6c90-44a8-bd8d-a0ba632858a5</t>
+  </si>
+  <si>
+    <t>attack-pattern--d59358df-a685-4a5d-b65b-2f81bd91bc02</t>
+  </si>
+  <si>
+    <t>attack-pattern--80a3250a-c57b-445e-a668-c9bb8bf1b136</t>
+  </si>
+  <si>
+    <t>attack-pattern--657cba2d-a94b-46ed-96c6-b0ff825e79d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e04885b8-82ed-464c-9789-fafb7fdbbe30</t>
+  </si>
+  <si>
+    <t>attack-pattern--db789568-054a-498b-b585-56e8d5ce88f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
+  </si>
+  <si>
+    <t>attack-pattern--ccd395a9-69f3-4f5e-a819-99f98bcc1c4b</t>
+  </si>
+  <si>
+    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
+  </si>
+  <si>
+    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
+  </si>
+  <si>
+    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--7344ac61-c0ef-484b-acb3-8ae385fcddb8</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e479550-b51e-4399-bdda-4895d98f99fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--451cf23a-2346-4c3c-aa15-a629af8bb982</t>
+  </si>
+  <si>
+    <t>attack-pattern--aab01876-c6ba-4fac-a23a-25bc508e6a5c</t>
+  </si>
+  <si>
+    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
+  </si>
+  <si>
+    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--4719e4eb-78c9-4292-8059-a88886b65dfe</t>
+  </si>
+  <si>
+    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2088636-a550-43d4-930c-603a33a024e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--689f398a-d130-4b8e-b359-5753973d8a8e</t>
+  </si>
+  <si>
+    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--78b26a25-f4e6-48b4-9ce9-aab8bce5db7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--02cec77c-40b1-418f-920b-a3f3217b669d</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d802c02-cc2a-4f12-8ec5-2cfd47fa5592</t>
+  </si>
+  <si>
+    <t>attack-pattern--016a388c-d340-44a8-ab69-26a115e5f9a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--91582fc7-5103-4d51-b520-1863eac391e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--7b189c01-b058-4340-8500-e90b3220354a</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
+  </si>
+  <si>
+    <t>attack-pattern--f81f0a08-3399-4006-9175-71a7dca2a917</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea45586f-e473-43ca-a2b5-44a424eee5e6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
+  </si>
+  <si>
+    <t>attack-pattern--02efc53c-0695-44f1-8951-b3644058bb60</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d1fb699-0cd0-420f-82ff-0f6947a10ecc</t>
+  </si>
+  <si>
+    <t>attack-pattern--9aedbc21-6bff-4826-a8a2-f8a414478fc0</t>
+  </si>
+  <si>
+    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
   </si>
   <si>
     <t>Acquire Infrastructure</t>
@@ -833,11 +833,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) models they have full access to and are representative of the target model.
+    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) they have full access to and are representative of the target model.
 The adversary uses [White-Box Optimization](/techniques/AML.T0043.000) on the proxy models to generate adversarial examples.
 If the set of proxy models are close enough to the target model, the adversarial example should generalize from one to another.
 This means that an attack that works for the proxy models will likely then work for the target model.
-If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use this [Verify Attack](/techniques/AML.T0042) that the attack is working and incorporate that information into their training process.
+If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use [Verify Attack](/techniques/AML.T0042) to confirm the attack is working and incorporate that information into their training process.
 </t>
   </si>
   <si>
@@ -1298,7 +1298,7 @@
   </si>
   <si>
     <t xml:space="preserve">In White-Box Optimization, the adversary has full access to the target model and optimizes the adversarial example directly.
-Adversarial examples trained in this manor are most effective against the target model.
+Adversarial examples trained in this manner are most effective against the target model.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>31 October 2023</t>
+    <t>12 January 2024</t>
   </si>
   <si>
     <t>Resource Development</t>
@@ -1650,46 +1650,46 @@
     <t>AML.TA0003</t>
   </si>
   <si>
-    <t>x-mitre-tactic--169cdf3d-886b-4d3e-a26d-11a848920ea8</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--da8d1d9d-c45d-4d56-8874-d7cd5886dc25</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e67a0f3d-a541-401f-801e-e62a9fdeca70</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--e81ccab1-e5f8-4d4f-be66-24dbe74fe5db</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--95274328-9e38-4bdd-9d2e-0e80e1256ff0</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--02d1fc74-a19e-406f-9ecc-df96a8d18856</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--7b38d743-e6b2-4a99-a497-bbc97db9a761</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--57175629-3f53-4980-a99d-8725df069f91</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--cf90e8f7-7829-431f-866f-66e6dd9e18a2</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--d4010b82-406a-46ba-83a1-23c16db77604</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--714edce4-f9ef-4b9a-b0ae-56e70a3cb15c</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--4acc5de3-5a7c-4ac8-8e7f-0e9f25e7e725</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--c79e43f1-2a18-48d4-af61-40091b1f1a37</t>
-  </si>
-  <si>
-    <t>x-mitre-tactic--90786da6-b4a6-4741-9bab-a87fdf42a05b</t>
+    <t>x-mitre-tactic--afe18db5-cd3b-404c-8993-3aaf488c5f62</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--f3deea7c-6d5a-49e7-ae3a-d70afc7889c9</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--9633dd67-f5e8-4a19-88aa-c9b6fcf9596c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c8c04179-cc2c-4a1d-b392-e6d4c42c3493</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d9deeb4d-c193-469d-a1c8-52e6d145da0c</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--2538ccce-34dd-4470-8c3f-747be088b4e6</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--f7d86c97-d8a6-4b81-a4a3-b49191faeced</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--876860aa-e340-435c-824b-b5dd011c4c95</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--c05767a2-5965-4618-b66e-6a7fffed256a</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--813efb61-5bed-439d-a264-1b4e0ab89c37</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--8bb9a040-d075-4566-966d-4a6a588f4fad</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--39d150db-6130-4b2e-81e5-754b344a6a00</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--d4d10ed9-f6d7-4774-a9f0-68bf4970c5bd</t>
+  </si>
+  <si>
+    <t>x-mitre-tactic--4cd8009a-c196-4c3d-8eae-87afa661ed8e</t>
   </si>
   <si>
     <t>Defense Evasion</t>
@@ -1857,6 +1857,9 @@
     <t>AML.M0005</t>
   </si>
   <si>
+    <t>AML.M0019</t>
+  </si>
+  <si>
     <t>AML.M0012</t>
   </si>
   <si>
@@ -1905,61 +1908,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--825f21ab-f3c9-46ce-b539-28f295f519f8</t>
-  </si>
-  <si>
-    <t>course-of-action--c55ed072-eca7-41d6-b5e0-68c10753544d</t>
-  </si>
-  <si>
-    <t>course-of-action--da785068-ece5-4c52-b77d-39e1b24cb6d7</t>
-  </si>
-  <si>
-    <t>course-of-action--8bba19a7-fc6f-4381-8b34-2d43cdc14627</t>
-  </si>
-  <si>
-    <t>course-of-action--88aea80f-498f-403d-b82f-e76c44f9da94</t>
-  </si>
-  <si>
-    <t>course-of-action--c0f65fa8-8e05-4481-b934-ff2c452ae8c3</t>
-  </si>
-  <si>
-    <t>course-of-action--0b016f6f-2f61-493c-bf9d-02cad4c027df</t>
-  </si>
-  <si>
-    <t>course-of-action--79316871-3bf9-4a59-b517-b0156e84fcb4</t>
-  </si>
-  <si>
-    <t>course-of-action--04e9bb75-1b7e-4825-bc3f-774850d3c1ef</t>
-  </si>
-  <si>
-    <t>course-of-action--6b53cb14-eade-4760-8dae-75164e62cb7e</t>
-  </si>
-  <si>
-    <t>course-of-action--6cd8c9ca-bd46-489f-9ccb-5b76b8ef580e</t>
-  </si>
-  <si>
-    <t>course-of-action--4a048bfe-dab5-434b-86cc-f4586951ec0d</t>
-  </si>
-  <si>
-    <t>course-of-action--7e20b527-6299-4ee3-863e-59fee7cdaa9a</t>
-  </si>
-  <si>
-    <t>course-of-action--de7a696b-f688-454c-bf61-476a68b50e9f</t>
-  </si>
-  <si>
-    <t>course-of-action--532918ce-83cf-4f6f-86fa-8ad4024e91ab</t>
-  </si>
-  <si>
-    <t>course-of-action--8c2cb25a-46b0-4551-beeb-21e8425a48bd</t>
-  </si>
-  <si>
-    <t>course-of-action--32bd077a-90ce-4e97-ad40-8f130a1a7dab</t>
-  </si>
-  <si>
-    <t>course-of-action--a861f658-4203-48ba-bdca-fe068518eefb</t>
-  </si>
-  <si>
-    <t>course-of-action--e2cb599d-2714-4673-bc1a-976c471d7c58</t>
+    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
+  </si>
+  <si>
+    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
+  </si>
+  <si>
+    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
+  </si>
+  <si>
+    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
+  </si>
+  <si>
+    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
+  </si>
+  <si>
+    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
+  </si>
+  <si>
+    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
+  </si>
+  <si>
+    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
+  </si>
+  <si>
+    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
+  </si>
+  <si>
+    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
+  </si>
+  <si>
+    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
+  </si>
+  <si>
+    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
+  </si>
+  <si>
+    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
+  </si>
+  <si>
+    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
+  </si>
+  <si>
+    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
+  </si>
+  <si>
+    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
+  </si>
+  <si>
+    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
+  </si>
+  <si>
+    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
+  </si>
+  <si>
+    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
+  </si>
+  <si>
+    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -1969,6 +1975,9 @@
   </si>
   <si>
     <t>Control Access to ML Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to ML Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -2032,6 +2041,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Require users to verify their identities before accessing a production model.
+Require authentication for API endpoints and monitor production model queries to ensure compliance with usage policies and to prevent model misuse.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
 </t>
   </si>
@@ -2048,7 +2062,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system. Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
 </t>
   </si>
   <si>
@@ -2087,6 +2103,7 @@
   </si>
   <si>
     <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
 </t>
   </si>
   <si>
@@ -2096,6 +2113,7 @@
   <si>
     <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
 File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
 </t>
   </si>
   <si>
@@ -2106,6 +2124,9 @@
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
+  </si>
+  <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
   </si>
   <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
@@ -5440,7 +5461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5477,16 +5498,16 @@
         <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>419</v>
@@ -5500,16 +5521,16 @@
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F3" t="s">
         <v>419</v>
@@ -5523,16 +5544,16 @@
         <v>501</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F4" t="s">
         <v>419</v>
@@ -5546,16 +5567,16 @@
         <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
         <v>419</v>
@@ -5569,16 +5590,16 @@
         <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F6" t="s">
         <v>419</v>
@@ -5592,16 +5613,16 @@
         <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F7" t="s">
         <v>419</v>
@@ -5615,16 +5636,16 @@
         <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F8" t="s">
         <v>419</v>
@@ -5638,16 +5659,16 @@
         <v>506</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F9" t="s">
         <v>419</v>
@@ -5661,16 +5682,16 @@
         <v>507</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F10" t="s">
         <v>419</v>
@@ -5684,16 +5705,16 @@
         <v>508</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F11" t="s">
         <v>419</v>
@@ -5707,16 +5728,16 @@
         <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F12" t="s">
         <v>419</v>
@@ -5730,16 +5751,16 @@
         <v>510</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F13" t="s">
         <v>419</v>
@@ -5753,16 +5774,16 @@
         <v>511</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D14" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F14" t="s">
         <v>419</v>
@@ -5776,16 +5797,16 @@
         <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
         <v>419</v>
@@ -5799,16 +5820,16 @@
         <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D16" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F16" t="s">
         <v>419</v>
@@ -5822,16 +5843,16 @@
         <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F17" t="s">
         <v>419</v>
@@ -5845,16 +5866,16 @@
         <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D18" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F18" t="s">
         <v>419</v>
@@ -5868,16 +5889,16 @@
         <v>516</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F19" t="s">
         <v>419</v>
@@ -5891,21 +5912,44 @@
         <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D20" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F20" t="s">
         <v>419</v>
       </c>
       <c r="G20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5930,6 +5974,7 @@
     <hyperlink ref="E18" r:id="rId17"/>
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
